--- a/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
+++ b/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="66">
   <si>
     <t xml:space="preserve">System: </t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar perfis de competencias.</t>
+    <t>Lider de Pessoas esta autenticado no sistema e  tem permissao para gerenciar Perfis de Competencias.</t>
   </si>
   <si>
     <t>#</t>
@@ -92,10 +92,10 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Lider de Pessoas acessa a funcionalidade de gestao de perfis de competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+    <t>Lider de Pessoas acessa a funcionalidade de gestao de Perfis de Competencias a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
   </si>
   <si>
     <t>Lider de Pessoas seleciona um perfil de competencias da listagem</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">Postcondition: </t>
   </si>
   <si>
-    <t>A gestao de perfis de competencias e realizada com sucesso.</t>
+    <t>A gestao de Perfis de Competencias e realizada com sucesso.</t>
   </si>
   <si>
     <t>TC2</t>
@@ -170,7 +170,7 @@
     <t>Lider de Pessoas nao confirma a exclusao do perfil</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias com o perfil de competencias excluido</t>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias com o perfil de competencias excluido</t>
   </si>
   <si>
     <t>TC3</t>
@@ -179,37 +179,37 @@
     <t>Lider de Pessoas confirma a exclusao do perfil</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias sem o perfil de competencias excluido</t>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias sem o perfil de competencias excluido</t>
   </si>
   <si>
     <t>TC4</t>
   </si>
   <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar um novo perfil</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o perfil, informando o campo ou a validacao que falhou</t>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar um Novo Perfil de Competencias</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo Perfil de Competencias, informando o campo ou a validacao que falhou</t>
   </si>
   <si>
     <t>TC5</t>
   </si>
   <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de perfis de competencias a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos perfis de competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Perfis de Competencias a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC6</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o perfil</t>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Perfil de Competencias, informando o campo ou a validacao que falhou</t>
   </si>
   <si>
     <t>TC7</t>
   </si>
   <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar o novo perfil, informando o campo ou a validacao que falhou</t>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Perfil de Competencias</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true" showGridLines="false"/>
   </sheetViews>
@@ -1878,13 +1878,13 @@
         <v>3.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -1898,138 +1898,18 @@
         <v>4.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D88" t="s" s="7">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E88" t="s" s="6">
         <v>2</v>
       </c>
       <c r="F88" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B89" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C89" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E89" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F89" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B90" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F90" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B91" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B92" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B93" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B94" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="E94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s" s="6">
         <v>2</v>
       </c>
     </row>

--- a/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
+++ b/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
@@ -167,21 +167,21 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome do perfil</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao do perfil</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias sem o perfil de competencias excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao do perfil</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Perfis de Competencias com o perfil de competencias excluido</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao do perfil</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Perfis de Competencias sem o perfil de competencias excluido</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -203,13 +203,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Perfil de Competencias</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Perfil de Competencias, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Perfil de Competencias</t>
   </si>
 </sst>
 </file>
@@ -1596,13 +1596,13 @@
         <v>3.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1616,235 +1616,235 @@
         <v>4.0</v>
       </c>
       <c r="B72" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75">
+      <c r="A75" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F78" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B82" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
+      <c r="C82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B83" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
+      <c r="C83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
+      <c r="E83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="10">
         <v>6.0</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B84" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
+      <c r="C84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B76" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C76" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E76" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F76" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B77" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81">
-      <c r="A81" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C81" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D81" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F81" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F82" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B84" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C84" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D84" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E84" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F84" t="s" s="5">
-        <v>25</v>
+      <c r="E84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="10">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>2</v>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="10">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="10">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
@@ -1929,8 +1929,8 @@
     <mergeCell ref="B60:F60"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:F77"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
+++ b/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
@@ -167,21 +167,21 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome do perfil</t>
   </si>
   <si>
+    <t>Lider de Pessoas nao confirma a exclusao do perfil</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias com o perfil de competencias excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas confirma a exclusao do perfil</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Perfis de Competencias sem o perfil de competencias excluido</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao do perfil</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Perfis de Competencias com o perfil de competencias excluido</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -203,13 +203,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Perfil de Competencias, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Perfil de Competencias</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Perfil de Competencias, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1596,13 +1596,13 @@
         <v>3.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1616,235 +1616,235 @@
         <v>4.0</v>
       </c>
       <c r="B72" t="s" s="7">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D72" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E73" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E75" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E76" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E77" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s" s="7">
         <v>63</v>
       </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75">
-      <c r="A75" t="s" s="4">
+      <c r="E78" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81">
+      <c r="A81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B75" t="s" s="4">
+      <c r="B81" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D75" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s" s="4">
+      <c r="D81" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F75" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="9">
+      <c r="F81" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B76" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C76" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s" s="9">
+      <c r="B82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F76" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="8">
+      <c r="F82" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B77" t="s" s="8">
+      <c r="B83" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C77" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="5">
+      <c r="C83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B78" t="s" s="5">
+      <c r="B84" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C78" t="s" s="5">
+      <c r="C84" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D78" t="s" s="5">
+      <c r="D84" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E78" t="s" s="5">
+      <c r="E84" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F78" t="s" s="5">
+      <c r="F84" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B79" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D79" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E79" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F79" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B80" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D80" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E80" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F80" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B81" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D81" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E81" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F81" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B82" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B83" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B84" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="10">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>2</v>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="10">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="10">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
@@ -1929,8 +1929,8 @@
     <mergeCell ref="B60:F60"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:F83"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
+++ b/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
@@ -167,19 +167,19 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome do perfil</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao do perfil</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias sem o perfil de competencias excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao do perfil</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Perfis de Competencias com o perfil de competencias excluido</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao do perfil</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Perfis de Competencias sem o perfil de competencias excluido</t>
   </si>
   <si>
     <t>TC4</t>
@@ -1898,7 +1898,7 @@
         <v>4.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>

--- a/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
+++ b/output/xlsx/RF006 - Gerenciar Perfis de Competencias--GTP-.xlsx
@@ -167,21 +167,21 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome do perfil</t>
   </si>
   <si>
+    <t>Lider de Pessoas nao confirma a exclusao do perfil</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Perfis de Competencias com o perfil de competencias excluido</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas confirma a exclusao do perfil</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem dos Perfis de Competencias sem o perfil de competencias excluido</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao do perfil</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Perfis de Competencias com o perfil de competencias excluido</t>
-  </si>
-  <si>
     <t>TC4</t>
   </si>
   <si>
@@ -203,13 +203,13 @@
     <t>TC6</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Perfil de Competencias</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar o Perfil de Competencias, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir o Perfil de Competencias</t>
   </si>
 </sst>
 </file>
@@ -1596,13 +1596,13 @@
         <v>3.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1616,235 +1616,235 @@
         <v>4.0</v>
       </c>
       <c r="B72" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75">
+      <c r="A75" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F78" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B82" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
+      <c r="C82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B83" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
+      <c r="C83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
+      <c r="E83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="10">
         <v>6.0</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B84" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
+      <c r="C84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B76" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C76" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E76" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F76" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B77" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81">
-      <c r="A81" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C81" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D81" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F81" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F82" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B84" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C84" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D84" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E84" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F84" t="s" s="5">
-        <v>25</v>
+      <c r="E84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="10">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>2</v>
@@ -1855,16 +1855,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="10">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -1895,10 +1895,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="10">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
@@ -1929,8 +1929,8 @@
     <mergeCell ref="B60:F60"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:F77"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
